--- a/output/frequencies/VNM_women_2006.xlsx
+++ b/output/frequencies/VNM_women_2006.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,14 +568,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Missing</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.2</v>
+        <v>24.7</v>
       </c>
       <c r="C11" t="n">
-        <v>212.5</v>
+        <v>421.3</v>
       </c>
     </row>
     <row r="12">
@@ -594,195 +594,208 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="C13" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Secondary</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.1</v>
+        <v>19.2</v>
       </c>
       <c r="C14" t="n">
-        <v>619.2</v>
+        <v>212.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>Mother Edu: Secondary</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.6</v>
+        <v>38.7</v>
       </c>
       <c r="C15" t="n">
-        <v>207.8</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Poor</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.7</v>
+        <v>16.6</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4</v>
+        <v>207.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Poorest</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.4</v>
+        <v>15.7</v>
       </c>
       <c r="C17" t="n">
-        <v>183.2</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Rich</t>
+          <t>Poorest</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25.9</v>
+        <v>10.4</v>
       </c>
       <c r="C18" t="n">
-        <v>223</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Richest</t>
+          <t>Rich</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.2</v>
+        <v>25.9</v>
       </c>
       <c r="C19" t="n">
-        <v>197.2</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Kinh and Hoa</t>
+          <t>Richest</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.1</v>
+        <v>61.2</v>
       </c>
       <c r="C20" t="n">
-        <v>801.6</v>
+        <v>197.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mong</t>
+          <t>Kinh and Hoa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="C21" t="n">
-        <v>22.9</v>
+        <v>801.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Other/Missing</t>
+          <t>Mong</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>75</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tay, Thai, Muong, Nung</t>
+          <t>Other/Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.09999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: NO</t>
+          <t>Tay, Thai, Muong, Nung</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24</v>
+        <v>6.4</v>
       </c>
       <c r="C24" t="n">
-        <v>789.6</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: YES</t>
+          <t>Elderly HoH: NO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.5</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>177</v>
+        <v>789.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Elderly HoH: YES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>36.1</v>
+        <v>37.5</v>
       </c>
       <c r="C26" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>24.3</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>785.6</v>
       </c>
     </row>
@@ -797,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,14 +950,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Missing</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>79.59999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>212.5</v>
+        <v>421.3</v>
       </c>
     </row>
     <row r="12">
@@ -963,195 +976,208 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Secondary</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.7</v>
+        <v>79.5</v>
       </c>
       <c r="C14" t="n">
-        <v>619.2</v>
+        <v>212.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>Mother Edu: Secondary</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="C15" t="n">
-        <v>207.8</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Poor</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4</v>
+        <v>207.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Poorest</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.5</v>
+        <v>83</v>
       </c>
       <c r="C17" t="n">
-        <v>183.2</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Rich</t>
+          <t>Poorest</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.40000000000001</v>
+        <v>46.5</v>
       </c>
       <c r="C18" t="n">
-        <v>223</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Richest</t>
+          <t>Rich</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>197.2</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Kinh and Hoa</t>
+          <t>Richest</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C20" t="n">
-        <v>801.6</v>
+        <v>197.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mong</t>
+          <t>Kinh and Hoa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>22.9</v>
+        <v>801.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Other/Missing</t>
+          <t>Mong</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5</v>
+        <v>2.2</v>
       </c>
       <c r="C22" t="n">
-        <v>75</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tay, Thai, Muong, Nung</t>
+          <t>Other/Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.5</v>
+        <v>34.5</v>
       </c>
       <c r="C23" t="n">
-        <v>67.09999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: NO</t>
+          <t>Tay, Thai, Muong, Nung</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>82.59999999999999</v>
+        <v>59.5</v>
       </c>
       <c r="C24" t="n">
-        <v>789.6</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: YES</t>
+          <t>Elderly HoH: NO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.09999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>177</v>
+        <v>789.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Elderly HoH: YES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>82</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>785.6</v>
       </c>
     </row>
@@ -1166,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,7 +1219,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.3</v>
+        <v>6.7</v>
       </c>
       <c r="C2" t="n">
         <v>966.7</v>
@@ -1206,7 +1232,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="C3" t="n">
         <v>741.2</v>
@@ -1219,7 +1245,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.8</v>
+        <v>7.2</v>
       </c>
       <c r="C4" t="n">
         <v>225.5</v>
@@ -1232,7 +1258,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="C5" t="n">
         <v>52.9</v>
@@ -1245,7 +1271,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>213</v>
@@ -1258,7 +1284,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="C7" t="n">
         <v>197.3</v>
@@ -1271,7 +1297,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.9</v>
+        <v>6.1</v>
       </c>
       <c r="C8" t="n">
         <v>150.8</v>
@@ -1284,7 +1310,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="C9" t="n">
         <v>198.1</v>
@@ -1297,7 +1323,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="C10" t="n">
         <v>154.6</v>
@@ -1306,14 +1332,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Missing</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>212.5</v>
+        <v>421.3</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1349,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="C12" t="n">
         <v>59.7</v>
@@ -1332,195 +1358,208 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="C13" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Secondary</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="C14" t="n">
-        <v>619.2</v>
+        <v>212.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>Mother Edu: Secondary</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="C15" t="n">
-        <v>207.8</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Poor</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4</v>
+        <v>207.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Poorest</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="C17" t="n">
-        <v>183.2</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Rich</t>
+          <t>Poorest</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="C18" t="n">
-        <v>223</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Richest</t>
+          <t>Rich</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="C19" t="n">
-        <v>197.2</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Kinh and Hoa</t>
+          <t>Richest</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="C20" t="n">
-        <v>801.6</v>
+        <v>197.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mong</t>
+          <t>Kinh and Hoa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="C21" t="n">
-        <v>22.9</v>
+        <v>801.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Other/Missing</t>
+          <t>Mong</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>75</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tay, Thai, Muong, Nung</t>
+          <t>Other/Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="C23" t="n">
-        <v>67.09999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: NO</t>
+          <t>Tay, Thai, Muong, Nung</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>789.6</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: YES</t>
+          <t>Elderly HoH: NO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>177</v>
+        <v>789.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Elderly HoH: YES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="C26" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C28" t="n">
         <v>785.6</v>
       </c>
     </row>
@@ -1535,7 +1574,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,14 +1714,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Missing</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.4</v>
+        <v>45.4</v>
       </c>
       <c r="C11" t="n">
-        <v>212.5</v>
+        <v>421.3</v>
       </c>
     </row>
     <row r="12">
@@ -1701,195 +1740,208 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.9</v>
+        <v>54.1</v>
       </c>
       <c r="C13" t="n">
-        <v>75.3</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Secondary</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.6</v>
+        <v>37.3</v>
       </c>
       <c r="C14" t="n">
-        <v>619.2</v>
+        <v>212.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>Mother Edu: Secondary</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.6</v>
+        <v>42.8</v>
       </c>
       <c r="C15" t="n">
-        <v>207.8</v>
+        <v>197.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Poor</t>
+          <t>Middle</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.4</v>
+        <v>44.6</v>
       </c>
       <c r="C16" t="n">
-        <v>155.4</v>
+        <v>207.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Poorest</t>
+          <t>Poor</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56.2</v>
+        <v>34.4</v>
       </c>
       <c r="C17" t="n">
-        <v>183.2</v>
+        <v>155.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Rich</t>
+          <t>Poorest</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>43.4</v>
+        <v>56.2</v>
       </c>
       <c r="C18" t="n">
-        <v>223</v>
+        <v>183.2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Richest</t>
+          <t>Rich</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.6</v>
+        <v>43.4</v>
       </c>
       <c r="C19" t="n">
-        <v>197.2</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Kinh and Hoa</t>
+          <t>Richest</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41.9</v>
+        <v>40.6</v>
       </c>
       <c r="C20" t="n">
-        <v>801.6</v>
+        <v>197.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Mong</t>
+          <t>Kinh and Hoa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>65.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="C21" t="n">
-        <v>22.9</v>
+        <v>801.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Other/Missing</t>
+          <t>Mong</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.9</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>75</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Tay, Thai, Muong, Nung</t>
+          <t>Other/Missing</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.6</v>
+        <v>57.9</v>
       </c>
       <c r="C23" t="n">
-        <v>67.09999999999999</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: NO</t>
+          <t>Tay, Thai, Muong, Nung</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>42.5</v>
+        <v>46.6</v>
       </c>
       <c r="C24" t="n">
-        <v>789.6</v>
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Elderly HoH: YES</t>
+          <t>Elderly HoH: NO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.9</v>
+        <v>42.5</v>
       </c>
       <c r="C25" t="n">
-        <v>177</v>
+        <v>789.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Elderly HoH: YES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>50.1</v>
+        <v>50.9</v>
       </c>
       <c r="C26" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>42.6</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>785.6</v>
       </c>
     </row>
